--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>Estado</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +559,7 @@
           <t>Pendiente</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -609,6 +615,7 @@
           <t>Pendiente</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -664,6 +671,7 @@
           <t>Pendiente</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -681,10 +689,8 @@
           <t>Libertad 80</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>33824565456</t>
-        </is>
+      <c r="D5" t="n">
+        <v>33824565456</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -701,10 +707,8 @@
           <t>Efectivo</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>8500</t>
-        </is>
+      <c r="H5" t="n">
+        <v>8500</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -722,6 +726,2379 @@
         <is>
           <t>Pendiente</t>
         </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>08:00 a 09:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>24510</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Empanadas Congeladas Cordero 22800 (x1), Agua saborizada Naranja 3000 (x1)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rioja 1086</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17:00 a 18:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>24510</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Empanadas Espinaca 1900 (x12), Agua saborizada Naranja 3000 (x1)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pedido de prueba para Daniel</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rioja 1086</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:00 a 18:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9120</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pollo Braseado Desmechado Pollo 8000 (x1), Agua saborizada Naranja 1600 (x1)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pedido de prueba para Daniel</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11:00 a 12:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>21960</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Agua sin gas 1600 (x1), Empanadas Congeladas Carne 22800 (x1)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>47500</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>47500</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>65740</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100), Agua sin gas 1600 (x12)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65740</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100), Agua sin gas 1600 (x12)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>65740</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100), Agua sin gas 1600 (x12)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>65740</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100), Agua sin gas 1600 (x12)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rioja 1086</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8550</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Empanadas Jamon y Queso 1900 (x3), Empanadas Cordero 1900 (x2)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3584903033</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>65740</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x100), Agua sin gas 1600 (x12)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rioja 1086</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>08:00 a 09:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Agua sin gas 1600 (x1)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Pedido de prueba para Daniel</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Silvina</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rioja 1086</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8550</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Empanadas Jamon y Queso 1900 (x3), Empanadas Cordero 1900 (x2)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>450</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Libertad 80</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>08:00 a 09:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Agua sin gas 2500 (x1)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Libertad 80</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3401415091</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>08:00 a 09:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2250</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Agua sin gas 2500 (x1)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>13:00 a 14:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7830</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Huevos de Campo 8700 (x1)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rodriguez 1104</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13:00 a 14:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Agua sin gas 1600 (x1)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Libertad 80</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14:00 a 15:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Agua saborizada Naranja 1600 (x1)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>450</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>450</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>450</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>450</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>450</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>450</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>450</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>450</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>450</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>450</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>450</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>450</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>450</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>450</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>450</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>450</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>450</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>450</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>450</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>33824565456</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>12:00 a 13:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>450</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Baguette Tradicional 500 (x1)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>33824565456</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>08:00 a 09:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1350</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>BBQ Casera BBQ (x1)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,10 +3057,8 @@
           <t>Misiones 1242</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>33824565456</t>
-        </is>
+      <c r="D46" t="n">
+        <v>33824565456</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3099,6 +3097,66 @@
       </c>
       <c r="N46" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veronica</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Misiones 1242</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>33824565456</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>16:00 a 19:00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>20520</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Empanadas Congeladas Pollo (12u) (x1)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
